--- a/biology/Botanique/Russell_Square/Russell_Square.xlsx
+++ b/biology/Botanique/Russell_Square/Russell_Square.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Russell Square est un grand jardin public à Bloomsbury, Londres nommé en l’honneur des comtes et ducs de Bedford portant le nom de famille Russell. Il est situé près du bâtiment principal de l'université de Londres ainsi que du British Museum. La station de métro Russell Square se trouve à proximité. 
 En 2002, le parc a été transformé afin de lui rendre son aspect original du XIXe siècle, et le café rouvert.
